--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pdgfc</t>
+  </si>
+  <si>
+    <t>Pdgfra</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pdgfc</t>
-  </si>
-  <si>
-    <t>Pdgfra</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2663606666666666</v>
+        <v>2.441874</v>
       </c>
       <c r="H2">
-        <v>0.799082</v>
+        <v>7.325622</v>
       </c>
       <c r="I2">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="J2">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N2">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O2">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P2">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q2">
-        <v>0.0740931914991111</v>
+        <v>0.287727641336</v>
       </c>
       <c r="R2">
-        <v>0.6668387234919999</v>
+        <v>2.589548772024</v>
       </c>
       <c r="S2">
-        <v>3.168153981726876E-05</v>
+        <v>0.0003825175425688292</v>
       </c>
       <c r="T2">
-        <v>3.168153981726876E-05</v>
+        <v>0.0003825175425688291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2663606666666666</v>
+        <v>2.441874</v>
       </c>
       <c r="H3">
-        <v>0.799082</v>
+        <v>7.325622</v>
       </c>
       <c r="I3">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="J3">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O3">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P3">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q3">
-        <v>60.13839884207732</v>
+        <v>551.3216135544239</v>
       </c>
       <c r="R3">
-        <v>541.2455895786959</v>
+        <v>4961.894521989816</v>
       </c>
       <c r="S3">
-        <v>0.02571460398604803</v>
+        <v>0.7329507439837818</v>
       </c>
       <c r="T3">
-        <v>0.02571460398604803</v>
+        <v>0.7329507439837818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2663606666666666</v>
+        <v>2.441874</v>
       </c>
       <c r="H4">
-        <v>0.799082</v>
+        <v>7.325622</v>
       </c>
       <c r="I4">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="J4">
-        <v>0.0257989900554292</v>
+        <v>0.7339587032246254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N4">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O4">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P4">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q4">
-        <v>0.1232593751557778</v>
+        <v>0.4704538867139999</v>
       </c>
       <c r="R4">
-        <v>1.109334376402</v>
+        <v>4.234084980425999</v>
       </c>
       <c r="S4">
-        <v>5.270452956391128E-05</v>
+        <v>0.0006254416982748111</v>
       </c>
       <c r="T4">
-        <v>5.270452956391127E-05</v>
+        <v>0.0006254416982748111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441874</v>
+        <v>0.885117</v>
       </c>
       <c r="H5">
-        <v>7.325622</v>
+        <v>2.655351</v>
       </c>
       <c r="I5">
-        <v>0.2365134606058369</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="J5">
-        <v>0.236513460605837</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N5">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O5">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P5">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q5">
-        <v>0.679252834748</v>
+        <v>0.104293926188</v>
       </c>
       <c r="R5">
-        <v>6.113275512732</v>
+        <v>0.938645335692</v>
       </c>
       <c r="S5">
-        <v>0.0002904420135596347</v>
+        <v>0.000138652846021496</v>
       </c>
       <c r="T5">
-        <v>0.0002904420135596347</v>
+        <v>0.0001386528460214959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441874</v>
+        <v>0.885117</v>
       </c>
       <c r="H6">
-        <v>7.325622</v>
+        <v>2.655351</v>
       </c>
       <c r="I6">
-        <v>0.2365134606058369</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="J6">
-        <v>0.236513460605837</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O6">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P6">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q6">
-        <v>551.3216135544239</v>
+        <v>199.840013294892</v>
       </c>
       <c r="R6">
-        <v>4961.894521989816</v>
+        <v>1798.560119654028</v>
       </c>
       <c r="S6">
-        <v>0.2357398473266587</v>
+        <v>0.2656759372771458</v>
       </c>
       <c r="T6">
-        <v>0.2357398473266588</v>
+        <v>0.2656759372771457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.441874</v>
+        <v>0.885117</v>
       </c>
       <c r="H7">
-        <v>7.325622</v>
+        <v>2.655351</v>
       </c>
       <c r="I7">
-        <v>0.2365134606058369</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="J7">
-        <v>0.236513460605837</v>
+        <v>0.2660412967753745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N7">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O7">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P7">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q7">
-        <v>1.129986147038</v>
+        <v>0.170527526337</v>
       </c>
       <c r="R7">
-        <v>10.169875323342</v>
+        <v>1.534747737033</v>
       </c>
       <c r="S7">
-        <v>0.0004831712656185959</v>
+        <v>0.0002267066522072417</v>
       </c>
       <c r="T7">
-        <v>0.0004831712656185959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.616226333333334</v>
-      </c>
-      <c r="H8">
-        <v>22.848679</v>
-      </c>
-      <c r="I8">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="J8">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.2781686666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.834506</v>
-      </c>
-      <c r="O8">
-        <v>0.001228014730390642</v>
-      </c>
-      <c r="P8">
-        <v>0.001228014730390642</v>
-      </c>
-      <c r="Q8">
-        <v>2.118595524174889</v>
-      </c>
-      <c r="R8">
-        <v>19.067359717574</v>
-      </c>
-      <c r="S8">
-        <v>0.0009058911770137391</v>
-      </c>
-      <c r="T8">
-        <v>0.0009058911770137391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.616226333333334</v>
-      </c>
-      <c r="H9">
-        <v>22.848679</v>
-      </c>
-      <c r="I9">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="J9">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>225.778076</v>
-      </c>
-      <c r="N9">
-        <v>677.3342279999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9967290940769435</v>
-      </c>
-      <c r="P9">
-        <v>0.9967290940769435</v>
-      </c>
-      <c r="Q9">
-        <v>1719.576927920534</v>
-      </c>
-      <c r="R9">
-        <v>15476.19235128481</v>
-      </c>
-      <c r="S9">
-        <v>0.7352746427642368</v>
-      </c>
-      <c r="T9">
-        <v>0.7352746427642368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.616226333333334</v>
-      </c>
-      <c r="H10">
-        <v>22.848679</v>
-      </c>
-      <c r="I10">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="J10">
-        <v>0.7376875493387339</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4627536666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.388261</v>
-      </c>
-      <c r="O10">
-        <v>0.002042891192665893</v>
-      </c>
-      <c r="P10">
-        <v>0.002042891192665893</v>
-      </c>
-      <c r="Q10">
-        <v>3.524436661913223</v>
-      </c>
-      <c r="R10">
-        <v>31.719929957219</v>
-      </c>
-      <c r="S10">
-        <v>0.001507015397483386</v>
-      </c>
-      <c r="T10">
-        <v>0.001507015397483386</v>
+        <v>0.0002267066522072416</v>
       </c>
     </row>
   </sheetData>
